--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,9 +15,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>Hello World !</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+  <si>
+    <t>Шаблон</t>
+  </si>
+  <si>
+    <t>проекта приказа на практику студентов</t>
+  </si>
+  <si>
+    <t>Факультет</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Направление</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>Поток</t>
+  </si>
+  <si>
+    <t>Вид практики</t>
+  </si>
+  <si>
+    <t>Тип практики</t>
+  </si>
+  <si>
+    <t>Сроки практики</t>
+  </si>
+  <si>
+    <t>Институт информационных технологий и анализа данных</t>
+  </si>
+  <si>
+    <t>ЭВМб-21-1</t>
+  </si>
+  <si>
+    <t>Информатика и вычислительная техника</t>
+  </si>
+  <si>
+    <t>ЭВМб-21</t>
+  </si>
+  <si>
+    <t>производственной</t>
+  </si>
+  <si>
+    <t>технологической (проектно-технологическая)</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>24.06.2024</t>
+  </si>
+  <si>
+    <t>по</t>
+  </si>
+  <si>
+    <t>21.07.2024</t>
+  </si>
+  <si>
+    <t>Всего 34 чел</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выпускающая кафедра: </t>
+  </si>
+  <si>
+    <t>№\n п/п</t>
+  </si>
+  <si>
+    <t>Студ.ИД</t>
+  </si>
+  <si>
+    <t>ФИО Студента</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Наименование предприятия</t>
+  </si>
+  <si>
+    <t>Место нахождения предприятия</t>
+  </si>
+  <si>
+    <t>Способы проведения практик</t>
+  </si>
+  <si>
+    <t>ФИО руководителя полностью в вин. падеже(назначить кого)</t>
+  </si>
+  <si>
+    <t>Должность руководителя в вин. падеже (назначить кого)</t>
+  </si>
+  <si>
+    <t>3-сторон. дог.</t>
+  </si>
+  <si>
+    <t>Работа по профилю</t>
+  </si>
+  <si>
+    <t>Азизов Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>Общий</t>
+  </si>
+  <si>
+    <t>Александров Иван Александрович</t>
+  </si>
+  <si>
+    <t>Алексеев Лев Глебович</t>
+  </si>
+  <si>
+    <t>Алхимов Сергей Алексеевич</t>
+  </si>
+  <si>
+    <t>Андреев Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>Власов Данил Витальевич</t>
+  </si>
+  <si>
+    <t>Давыдов Даниил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Дампилов Бимба Бимбаевич</t>
+  </si>
+  <si>
+    <t>Добрякова Снежана Дмитриевна</t>
+  </si>
+  <si>
+    <t>Елгин Борислав Алексеевич</t>
+  </si>
+  <si>
+    <t>Зайцев Артём Евгеньевич</t>
+  </si>
+  <si>
+    <t>Заморозов Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Захарова Алена Дмитриевна</t>
+  </si>
+  <si>
+    <t>Ивановских Денис Евгеньевич</t>
+  </si>
+  <si>
+    <t>Ирдынеева Саяна Александровна</t>
+  </si>
+  <si>
+    <t>Коретникова Наталья Андреевна</t>
+  </si>
+  <si>
+    <t>Кравцов Владимир Сергеевич</t>
+  </si>
+  <si>
+    <t>Логунов Владислав Алексеевич</t>
+  </si>
+  <si>
+    <t>Максименко Данила Павлович</t>
+  </si>
+  <si>
+    <t>Манякало Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Матель Владислав Андреевич</t>
+  </si>
+  <si>
+    <t>Нанзатов Арсалан Раднажапович</t>
+  </si>
+  <si>
+    <t>Несмеянов Никита Борисович</t>
+  </si>
+  <si>
+    <t>АО "Байкалэнерго"</t>
+  </si>
+  <si>
+    <t>Пакулов Даниил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Постарнаков Максим Ярославович</t>
+  </si>
+  <si>
+    <t>Пухов Матвей Максимович</t>
+  </si>
+  <si>
+    <t>Селиверстов Антон Павлович</t>
+  </si>
+  <si>
+    <t>Тимашков Алексей Юрьевич</t>
+  </si>
+  <si>
+    <t>Толстиков Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Фомин Вячеслав Игоревич</t>
+  </si>
+  <si>
+    <t>Черкашин Никита Олегович</t>
+  </si>
+  <si>
+    <t>Чумаков Семён Геннадьевич</t>
+  </si>
+  <si>
+    <t>Шакиров Захар Николаевич</t>
+  </si>
+  <si>
+    <t>Якимович Василий Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -357,7 +567,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -365,12 +575,646 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>23547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>4558</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4559</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4560</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4561</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4562</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4563</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>4564</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>4565</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>4566</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>4567</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>4568</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>4569</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>4570</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>4571</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>4572</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>4573</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>4574</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>4575</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>4576</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>4577</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>4578</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>4579</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>4580</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>4581</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>4582</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>4583</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>4584</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>4585</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>4586</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>4587</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>4588</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>4589</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>4590</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>4591</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Шаблон</t>
   </si>
@@ -149,6 +149,12 @@
     <t>Дампилов Бимба Бимбаевич</t>
   </si>
   <si>
+    <t>Куулар Эдита Канкиевна</t>
+  </si>
+  <si>
+    <t>Ассистент</t>
+  </si>
+  <si>
     <t>Добрякова Снежана Дмитриевна</t>
   </si>
   <si>
@@ -195,6 +201,12 @@
   </si>
   <si>
     <t>АО "Байкалэнерго"</t>
+  </si>
+  <si>
+    <t>Аношко Алексей Федорович</t>
+  </si>
+  <si>
+    <t>Руководитель лаборатории сетевых систем и ИТ-инфраструктуры</t>
   </si>
   <si>
     <t>Пакулов Даниил Евгеньевич</t>
@@ -567,7 +579,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +854,12 @@
       <c r="D24" t="s">
         <v>36</v>
       </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
@@ -851,7 +869,7 @@
         <v>4566</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -865,7 +883,7 @@
         <v>4567</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -879,7 +897,7 @@
         <v>4568</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
@@ -893,7 +911,7 @@
         <v>4569</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -907,7 +925,7 @@
         <v>4570</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -921,7 +939,7 @@
         <v>4571</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -935,7 +953,7 @@
         <v>4572</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -949,7 +967,7 @@
         <v>4573</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -963,7 +981,7 @@
         <v>4574</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -977,7 +995,7 @@
         <v>4575</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -991,7 +1009,7 @@
         <v>4576</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -1005,7 +1023,7 @@
         <v>4577</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -1019,7 +1037,7 @@
         <v>4578</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -1033,7 +1051,7 @@
         <v>4579</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -1047,13 +1065,19 @@
         <v>4580</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1064,7 +1088,7 @@
         <v>4581</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>36</v>
@@ -1078,7 +1102,7 @@
         <v>4582</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -1092,7 +1116,7 @@
         <v>4583</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -1106,7 +1130,7 @@
         <v>4584</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -1120,7 +1144,7 @@
         <v>4585</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -1134,7 +1158,7 @@
         <v>4586</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -1148,7 +1172,7 @@
         <v>4587</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -1162,7 +1186,7 @@
         <v>4588</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -1176,7 +1200,7 @@
         <v>4589</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -1190,7 +1214,7 @@
         <v>4590</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -1204,10 +1228,18 @@
         <v>4591</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="H90">
+        <v>121</v>
+      </c>
+      <c r="I90">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
